--- a/Symphony/2021/SEPTEMBER/All Details/02.09.2021/MC Bank Statement September-2021.xlsx
+++ b/Symphony/2021/SEPTEMBER/All Details/02.09.2021/MC Bank Statement September-2021.xlsx
@@ -4918,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6020,8 +6020,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6246,7 +6246,7 @@
       <c r="H7" s="96"/>
       <c r="I7" s="96"/>
       <c r="J7" s="97">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K7" s="96">
         <v>510</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="Q7" s="99">
         <f t="shared" si="0"/>
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="R7" s="100"/>
       <c r="S7" s="36"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="J37" s="121">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K37" s="121">
         <f t="shared" si="1"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="Q37" s="123">
         <f>SUM(Q6:Q36)</f>
-        <v>4645</v>
+        <v>4650</v>
       </c>
       <c r="S37" s="273" t="s">
         <v>66</v>
@@ -9095,11 +9095,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9114,6 +9109,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9127,8 +9127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9689,14 +9689,14 @@
         <v>588585</v>
       </c>
       <c r="C6" s="67">
-        <v>1000</v>
+        <v>651910</v>
       </c>
       <c r="D6" s="67">
         <v>1715</v>
       </c>
       <c r="E6" s="67">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>2715</v>
+        <v>653625</v>
       </c>
       <c r="F6" s="276"/>
       <c r="G6" s="284">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="C33" s="225">
         <f>SUM(C5:C32)</f>
-        <v>550230</v>
+        <v>1201140</v>
       </c>
       <c r="D33" s="225">
         <f>SUM(D5:D32)</f>
@@ -12463,11 +12463,11 @@
       </c>
       <c r="E33" s="225">
         <f>SUM(E5:E32)</f>
-        <v>554875</v>
+        <v>1205785</v>
       </c>
       <c r="F33" s="282">
         <f>B33-E33</f>
-        <v>787660</v>
+        <v>136750</v>
       </c>
       <c r="G33" s="287"/>
       <c r="H33" s="170"/>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="F36" s="217">
         <f>F33-D119+L121</f>
-        <v>599830</v>
+        <v>0</v>
       </c>
       <c r="G36" s="170"/>
       <c r="H36" s="170"/>
@@ -13831,10 +13831,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="250">
-        <v>484510</v>
+        <v>434510</v>
       </c>
       <c r="E46" s="219" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F46" s="162"/>
       <c r="G46" s="169"/>
@@ -14563,10 +14563,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="251">
-        <v>51880</v>
+        <v>50800</v>
       </c>
       <c r="E52" s="211" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F52" s="163"/>
       <c r="G52" s="169"/>
@@ -22092,7 +22092,7 @@
       <c r="C119" s="344"/>
       <c r="D119" s="254">
         <f>SUM(D37:D118)</f>
-        <v>2052704</v>
+        <v>2001624</v>
       </c>
       <c r="E119" s="246"/>
       <c r="F119" s="169"/>
@@ -22299,7 +22299,7 @@
       <c r="C121" s="332"/>
       <c r="D121" s="254">
         <f>D119+M121</f>
-        <v>2052704</v>
+        <v>2001624</v>
       </c>
       <c r="E121" s="246"/>
       <c r="F121" s="169"/>
@@ -32316,8 +32316,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32467,7 +32467,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="49">
-        <v>4308318.2486904804</v>
+        <v>4308318.7116666669</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="302" t="s">
@@ -32544,7 +32544,9 @@
       <c r="D8" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="132">
+        <v>651698</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="300"/>
       <c r="H8" s="300"/>
@@ -32606,7 +32608,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="48">
-        <v>4645</v>
+        <v>4650</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="151"/>
@@ -32647,7 +32649,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="49">
-        <v>2066664</v>
+        <v>2001624</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="296"/>
@@ -32680,7 +32682,7 @@
       </c>
       <c r="B12" s="291">
         <f>B7+B8-B10-B11</f>
-        <v>30367.711666666655</v>
+        <v>30362.711666666655</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47" t="s">
@@ -32826,7 +32828,7 @@
       </c>
       <c r="B16" s="51">
         <f>B6+B7+B8-B10-B14-B11</f>
-        <v>8030367.7116666669</v>
+        <v>8030362.7116666669</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
@@ -32834,12 +32836,12 @@
       </c>
       <c r="E16" s="50">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>7443704.2486904804</v>
+        <v>8030362.7116666669</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="133">
         <f>B16-E16</f>
-        <v>586663.46297618654</v>
+        <v>0</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="8"/>
@@ -33170,7 +33172,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="147">
-        <v>484510</v>
+        <v>434510</v>
       </c>
       <c r="C25" s="148"/>
       <c r="D25" s="53" t="s">
